--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>returned</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -61,202 +64,211 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>family</t>
+    <t>cooke</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>kitchen</t>
+    <t>pan</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>many</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
+    <t>wish</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>makes</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>really</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
   <si>
     <t>one</t>
@@ -626,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -745,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2868217054263566</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>0.956989247311828</v>
@@ -795,89 +807,113 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2424242424242424</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>77</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>0.8985507246376812</v>
+      </c>
+      <c r="L5">
+        <v>62</v>
+      </c>
+      <c r="M5">
+        <v>62</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.1297297297297297</v>
+      </c>
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>75</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="L5">
-        <v>60</v>
-      </c>
-      <c r="M5">
-        <v>60</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>161</v>
+      </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8828125</v>
+      </c>
+      <c r="L6">
+        <v>113</v>
+      </c>
+      <c r="M6">
+        <v>113</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>15</v>
-      </c>
-      <c r="K6">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="L6">
-        <v>40</v>
-      </c>
-      <c r="M6">
-        <v>40</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8671875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,12 +925,12 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
         <v>0.8606811145510835</v>
@@ -920,16 +956,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7792207792207793</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,21 +977,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7555555555555555</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,21 +1003,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.75</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -993,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.70995670995671</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L12">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1019,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6440677966101694</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L13">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="M13">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1045,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1071,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6338028169014085</v>
+        <v>0.6576271186440678</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1097,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6260032102728732</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L16">
-        <v>780</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>780</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1123,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>466</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6153846153846154</v>
+        <v>0.6364365971107544</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>793</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>793</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1149,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6122448979591837</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1175,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6111111111111112</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1201,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6029411764705882</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1227,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5873015873015873</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1253,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5857142857142857</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1284,16 +1320,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5833333333333334</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1310,16 +1346,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5714285714285714</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1331,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.543859649122807</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1357,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5288461538461539</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L26">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1383,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5076923076923077</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1409,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5029940119760479</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L28">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1435,15 +1471,15 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L29">
         <v>32</v>
@@ -1461,47 +1497,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.4923076923076923</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L30">
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>33</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>32</v>
-      </c>
-      <c r="M30">
-        <v>32</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.4901960784313725</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1513,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.4871794871794872</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1539,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.4819277108433735</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1565,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.4605263157894737</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1591,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.45</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1617,21 +1653,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.4285714285714285</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L36">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1643,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.4262295081967213</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1669,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.4126984126984127</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1695,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.3975903614457831</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L39">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1721,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.3703703703703703</v>
+        <v>0.41</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1747,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.3455882352941176</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L41">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="M41">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1773,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>267</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.3333333333333333</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1799,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.3289473684210527</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1825,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.3229571984435798</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L44">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="M44">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1851,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>174</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.2932330827067669</v>
+        <v>0.3151750972762646</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1877,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>94</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.2877697841726619</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1903,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.2780821917808219</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L47">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="M47">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1929,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>527</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.2685185185185185</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1955,21 +1991,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.2476190476190476</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L49">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1981,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.2440191387559809</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L50">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="M50">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2007,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>158</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.2317880794701987</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="L51">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M51">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2033,21 +2069,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.2277227722772277</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2059,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.2271259418729817</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L53">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="M53">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2085,21 +2121,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>718</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2080536912751678</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2111,21 +2147,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>118</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1974921630094044</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="L55">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2137,21 +2173,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>256</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1748344370860927</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L56">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="M56">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2163,21 +2199,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>623</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1726342710997442</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="L57">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2189,21 +2225,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>647</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1299435028248588</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2215,21 +2251,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.1293800539083558</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="L59">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2241,21 +2277,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>323</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.121654501216545</v>
+        <v>0.1814569536423841</v>
       </c>
       <c r="L60">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="M60">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2267,21 +2303,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>361</v>
+        <v>618</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.1202749140893471</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L61">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2293,21 +2329,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>256</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.1092436974789916</v>
+        <v>0.1662404092071611</v>
       </c>
       <c r="L62">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="M62">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2319,15 +2355,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>212</v>
+        <v>652</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.1083743842364532</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L63">
         <v>22</v>
@@ -2345,21 +2381,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.09210526315789473</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L64">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M64">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2371,21 +2407,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>414</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.08856088560885608</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2397,21 +2433,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>247</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.08636363636363636</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="L66">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M66">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2423,21 +2459,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>402</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.08518518518518518</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2449,21 +2485,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.07875894988066826</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="L68">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M68">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2475,47 +2511,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>386</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.06743185078909612</v>
+        <v>0.1008771929824561</v>
       </c>
       <c r="L69">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M69">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>650</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K70">
-        <v>0.06557377049180328</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L70">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M70">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2527,47 +2563,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K71">
-        <v>0.05583756345177665</v>
+        <v>0.09665427509293681</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M71">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>372</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K72">
-        <v>0.05503731343283582</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="L72">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M72">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2579,15 +2615,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>1013</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K73">
-        <v>0.04428044280442804</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L73">
         <v>24</v>
@@ -2605,33 +2641,111 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>518</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K74">
-        <v>0.02857142857142857</v>
+        <v>0.06312769010043041</v>
       </c>
       <c r="L74">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M74">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N74">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1122</v>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K75">
+        <v>0.05788982259570495</v>
+      </c>
+      <c r="L75">
+        <v>62</v>
+      </c>
+      <c r="M75">
+        <v>63</v>
+      </c>
+      <c r="N75">
+        <v>0.98</v>
+      </c>
+      <c r="O75">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K76">
+        <v>0.04428044280442804</v>
+      </c>
+      <c r="L76">
+        <v>24</v>
+      </c>
+      <c r="M76">
+        <v>24</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K77">
+        <v>0.02335640138408305</v>
+      </c>
+      <c r="L77">
+        <v>27</v>
+      </c>
+      <c r="M77">
+        <v>28</v>
+      </c>
+      <c r="N77">
+        <v>0.96</v>
+      </c>
+      <c r="O77">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
